--- a/board/EasyLink_v2/EasyLink_v2_BOM.xlsx
+++ b/board/EasyLink_v2/EasyLink_v2_BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1006661-790E-4F58-86A7-A022BD72A016}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA5EC5-4B4D-4D39-9057-66F390467DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>Part Number</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>EasyLink v1</t>
+  </si>
+  <si>
+    <t>563-1102-1-ND</t>
+  </si>
+  <si>
+    <t>Low profile 5V switch</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,6 +1138,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
